--- a/6月/采购商城支付case.xlsx
+++ b/6月/采购商城支付case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
   <si>
     <t>写case人</t>
   </si>
@@ -160,7 +160,7 @@
     <t>没有居中显示</t>
   </si>
   <si>
-    <t>平台供应商首页功能</t>
+    <t>平台供应商功能</t>
   </si>
   <si>
     <t>点击首页按钮</t>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>链接到对应编辑页面</t>
+  </si>
+  <si>
+    <t>分页下拉菜单</t>
+  </si>
+  <si>
+    <t>正确显示页数</t>
+  </si>
+  <si>
+    <t>页数显示不对</t>
   </si>
   <si>
     <t>点击“登录管理”</t>
@@ -393,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -423,39 +432,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,15 +471,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,23 +501,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,8 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,11 +555,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -582,12 +591,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,174 +772,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,17 +837,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,16 +871,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,26 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +940,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,137 +952,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1093,18 +1102,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,21 +1114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1138,16 +1129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1471,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1513,262 +1495,262 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="26.4" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="26.4" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11"/>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="26.4" customHeight="1" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11"/>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="39.6" customHeight="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="21.6" customHeight="1" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="14"/>
+      <c r="E8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="25.8" customHeight="1" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="14"/>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" ht="28.2" customHeight="1" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="14"/>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" ht="22.8" customHeight="1" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="14"/>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="27.6" customHeight="1" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="14"/>
+      <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="25.2" customHeight="1" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:7">
+      <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1786,8 +1768,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="6" t="s">
         <v>51</v>
       </c>
@@ -1803,8 +1785,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1820,8 +1802,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
         <v>55</v>
       </c>
@@ -1837,8 +1819,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1854,25 +1836,25 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="23"/>
+      <c r="E22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
@@ -1888,27 +1870,27 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="6" t="s">
         <v>66</v>
       </c>
@@ -1924,8 +1906,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" ht="26" customHeight="1" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="6" t="s">
         <v>68</v>
       </c>
@@ -1941,8 +1923,8 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" ht="28" customHeight="1" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="6" t="s">
         <v>70</v>
       </c>
@@ -1958,8 +1940,8 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" ht="28" customHeight="1" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="6" t="s">
         <v>72</v>
       </c>
@@ -1969,12 +1951,14 @@
       <c r="E28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
@@ -1984,26 +1968,38 @@
       <c r="E29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" ht="28" customHeight="1" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:7">
-      <c r="A31" s="24"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>23</v>
@@ -2014,74 +2010,74 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" ht="51" customHeight="1" spans="1:7">
-      <c r="A32" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="A32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="B32" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="C32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>82</v>
+      <c r="G32" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>82</v>
+      <c r="G33" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="35" customHeight="1" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="19" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="35" ht="34" customHeight="1" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>23</v>
@@ -2092,13 +2088,13 @@
       <c r="G35" s="6"/>
     </row>
     <row r="36" ht="32" customHeight="1" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>23</v>
@@ -2109,15 +2105,15 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" ht="28" customHeight="1" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18" t="s">
-        <v>91</v>
+      <c r="A37" s="14"/>
+      <c r="B37" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>23</v>
@@ -2127,14 +2123,14 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" ht="26" customHeight="1" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
+    <row r="38" ht="34" customHeight="1" spans="1:7">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>23</v>
@@ -2142,14 +2138,14 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" ht="22" customHeight="1" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
+    <row r="39" ht="28" customHeight="1" spans="1:7">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>23</v>
@@ -2157,80 +2153,82 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" ht="21" customHeight="1" spans="1:7">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
+    <row r="40" ht="32" customHeight="1" spans="1:7">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" ht="31" customHeight="1" spans="1:7">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" ht="36" customHeight="1" spans="1:7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>103</v>
+      <c r="G42" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="20"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="19" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>106</v>
+      <c r="G43" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:7">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>23</v>
@@ -2239,147 +2237,151 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" ht="41" customHeight="1" spans="1:7">
+      <c r="A46" s="14"/>
+      <c r="B46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" ht="35" customHeight="1" spans="1:7">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" ht="31" customHeight="1" spans="1:7">
+      <c r="A48" s="14"/>
+      <c r="B48" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="1:7">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" ht="47" customHeight="1" spans="1:7">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" ht="35" customHeight="1" spans="1:7">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" ht="31" customHeight="1" spans="1:7">
-      <c r="A48" s="20"/>
-      <c r="B48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" ht="36" customHeight="1" spans="1:7">
-      <c r="A49" s="20"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="50" ht="37" customHeight="1" spans="1:7">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
     <row r="51" ht="32" customHeight="1" spans="1:7">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="19" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>120</v>
+      <c r="G51" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="52" ht="42" customHeight="1" spans="1:7">
-      <c r="A52" s="24"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="19" t="s">
-        <v>123</v>
+      <c r="G52" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" ht="34" customHeight="1" spans="1:7">
-      <c r="A53" s="25"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2387,8 +2389,8 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="25"/>
+    <row r="54" ht="41" customHeight="1" spans="1:7">
+      <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2396,8 +2398,8 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="25"/>
+    <row r="55" ht="35" customHeight="1" spans="1:7">
+      <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2405,8 +2407,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="25"/>
+    <row r="56" ht="39" customHeight="1" spans="1:7">
+      <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2414,8 +2416,8 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="25"/>
+    <row r="57" ht="52" customHeight="1" spans="1:7">
+      <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2423,8 +2425,8 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="25"/>
+    <row r="58" ht="49" customHeight="1" spans="1:7">
+      <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2432,8 +2434,8 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="25"/>
+    <row r="59" ht="43" customHeight="1" spans="1:7">
+      <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2441,8 +2443,8 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="25"/>
+    <row r="60" ht="39" customHeight="1" spans="1:7">
+      <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2450,8 +2452,8 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="25"/>
+    <row r="61" ht="46" customHeight="1" spans="1:7">
+      <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2459,8 +2461,8 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="25"/>
+    <row r="62" ht="63" customHeight="1" spans="1:7">
+      <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2468,8 +2470,8 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="25"/>
+    <row r="63" ht="58" customHeight="1" spans="1:7">
+      <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2477,8 +2479,8 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="25"/>
+    <row r="64" ht="52" customHeight="1" spans="1:7">
+      <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2486,8 +2488,8 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="25"/>
+    <row r="65" ht="64" customHeight="1" spans="1:7">
+      <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2495,8 +2497,8 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="25"/>
+    <row r="66" ht="62" customHeight="1" spans="1:7">
+      <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2504,8 +2506,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="25"/>
+    <row r="67" ht="62" customHeight="1" spans="1:7">
+      <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2513,8 +2515,8 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="25"/>
+    <row r="68" ht="51" customHeight="1" spans="1:7">
+      <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
